--- a/working/CrizerPFAS/CrizerChemIDs.xlsx
+++ b/working/CrizerPFAS/CrizerChemIDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\invitrotkstats\working\CrizerPFAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{624A5724-3477-453F-855E-CEC6C2CB59BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A2F14E-C779-49FD-B433-6A0A94CE26AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="2850" windowWidth="27630" windowHeight="11715" xr2:uid="{819F4BB0-2119-468F-947F-0171544AB1A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{819F4BB0-2119-468F-947F-0171544AB1A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Chemical</t>
   </si>
@@ -48,19 +48,276 @@
   </si>
   <si>
     <t>DTXSID20874028</t>
+  </si>
+  <si>
+    <t>8:2_Fluoroteleomer_Sulfonic_Acid</t>
+  </si>
+  <si>
+    <t>DTXSID00192353</t>
+  </si>
+  <si>
+    <t>3:3_Fluorotelomer_carboxylic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID00379268</t>
+  </si>
+  <si>
+    <t>DTXSID00880026</t>
+  </si>
+  <si>
+    <t>Potassium_perfluorooctanoate</t>
+  </si>
+  <si>
+    <t>N-Ethylperfluorooctanesulfonamide</t>
+  </si>
+  <si>
+    <t>DTXSID1032646</t>
+  </si>
+  <si>
+    <t>Perfluoroheptanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID1037303</t>
+  </si>
+  <si>
+    <t>N-Methylperfluorooctanesulfonamide</t>
+  </si>
+  <si>
+    <t>DTXSID1067629</t>
+  </si>
+  <si>
+    <t>2-(Perfluorohexyl)ethylphosphonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID20179883</t>
+  </si>
+  <si>
+    <t>3,3-Bis(trifluoromethyl)-2-propenoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID30170109</t>
+  </si>
+  <si>
+    <t>Perfluorodecanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID3031860</t>
+  </si>
+  <si>
+    <t>Perfluorohexanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID3031862</t>
+  </si>
+  <si>
+    <t>Perfluorooctanesulfonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID3031864</t>
+  </si>
+  <si>
+    <t>Potassium_perfluorobutanesulfonate</t>
+  </si>
+  <si>
+    <t>DTXSID3037707</t>
+  </si>
+  <si>
+    <t>Potassium_Pefluorohexanesulfate</t>
+  </si>
+  <si>
+    <t>DTXSID3037709</t>
+  </si>
+  <si>
+    <t>Perfluoro-3,6-dioxaheptanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID30382063</t>
+  </si>
+  <si>
+    <t>Perfluorotetradecanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID3059921</t>
+  </si>
+  <si>
+    <t>4:2_Fluorotelomer_sulfonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID30891564</t>
+  </si>
+  <si>
+    <t>3-(Perfluoroisopropyl)-2-propenoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID40380257</t>
+  </si>
+  <si>
+    <t>Perfluorobutanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID4059916</t>
+  </si>
+  <si>
+    <t>Sodium_perfluorooctanoate</t>
+  </si>
+  <si>
+    <t>DTXSID40880025</t>
+  </si>
+  <si>
+    <t>Perfluorobutanesulfonic_acid</t>
+  </si>
+  <si>
+    <t>Perfluorohexanesulfonamide</t>
+  </si>
+  <si>
+    <t>DTXSID5030030</t>
+  </si>
+  <si>
+    <t>DTXSID50469320</t>
+  </si>
+  <si>
+    <t>11-H-Perfluoroundecanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID5061954</t>
+  </si>
+  <si>
+    <t>4H-Perfluorobutanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID50892417</t>
+  </si>
+  <si>
+    <t>2,2,2-Trifluoroethyl_perfluorobutanesulfonate</t>
+  </si>
+  <si>
+    <t>DTXSID60380390</t>
+  </si>
+  <si>
+    <t>Perfluoro(4-methoxybutanoic)_acid</t>
+  </si>
+  <si>
+    <t>DTXSID60500450</t>
+  </si>
+  <si>
+    <t>Perfluoropentanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID6062599</t>
+  </si>
+  <si>
+    <t>Perfluoro-4-isopropoxybutanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID60663110</t>
+  </si>
+  <si>
+    <t>6:2_Fluorotelomer_sulfonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID6067331</t>
+  </si>
+  <si>
+    <t>Sodium_perfluorodecanesulfonate</t>
+  </si>
+  <si>
+    <t>DTXSID60892443</t>
+  </si>
+  <si>
+    <t>Perfluoro-3-methoxypropanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID70191136</t>
+  </si>
+  <si>
+    <t>Perfluorohexanesulfonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID7040150</t>
+  </si>
+  <si>
+    <t>Perfluorooctanesulfonate</t>
+  </si>
+  <si>
+    <t>DTXSID80108992</t>
+  </si>
+  <si>
+    <t>Perfluorononanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID8031863</t>
+  </si>
+  <si>
+    <t>Perfluorooctanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID8031865</t>
+  </si>
+  <si>
+    <t>Potassium_perfluorooctanesulfonate</t>
+  </si>
+  <si>
+    <t>DTXSID8037706</t>
+  </si>
+  <si>
+    <t>Ammonium_perfluorooctanoate</t>
+  </si>
+  <si>
+    <t>DTXSID8037708</t>
+  </si>
+  <si>
+    <t>Perfluoroundecanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID8047553</t>
+  </si>
+  <si>
+    <t>Perfluorooctanesulfonamido_ammonium_iodide</t>
+  </si>
+  <si>
+    <t>DTXSID8051419</t>
+  </si>
+  <si>
+    <t>Perfluoroheptanesulfonic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID8059920</t>
+  </si>
+  <si>
+    <t>Perfluoropropanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID8059970</t>
+  </si>
+  <si>
+    <t>Perfluoro-1-octanesulfonyl_chloride</t>
+  </si>
+  <si>
+    <t>DTXSID90315130</t>
+  </si>
+  <si>
+    <t>Perfluorotridecanoic_acid</t>
+  </si>
+  <si>
+    <t>DTXSID90868151</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,13 +340,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -100,6 +381,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{61DDEC30-F9B7-48F5-A8B3-DBABB6D1E149}" name="Table1" displayName="Table1" ref="A1:B44" totalsRowShown="0">
+  <autoFilter ref="A1:B44" xr:uid="{61DDEC30-F9B7-48F5-A8B3-DBABB6D1E149}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CF27F945-8CE4-4AC2-B5C3-1FDA67ACBD79}" name="Chemical" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7AA6CD87-74DC-4D34-B235-20B5844CCA97}" name="DTXSID"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,13 +691,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE8F23D-687E-440F-B10F-6183CD66E1B7}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -423,7 +719,347 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/working/CrizerPFAS/CrizerChemIDs.xlsx
+++ b/working/CrizerPFAS/CrizerChemIDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\invitrotkstats\working\CrizerPFAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A2F14E-C779-49FD-B433-6A0A94CE26AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA0E575-D911-46B5-BFF4-E4EE5D0E1805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{819F4BB0-2119-468F-947F-0171544AB1A3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{819F4BB0-2119-468F-947F-0171544AB1A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
   <si>
     <t>Chemical</t>
   </si>
@@ -300,13 +300,73 @@
   </si>
   <si>
     <t>DTXSID90868151</t>
+  </si>
+  <si>
+    <t>3-Perfluoroheptylpropanoic acid (7:3 FTCA)</t>
+  </si>
+  <si>
+    <t>N-Ethylperfluorooctanesulfonamide (NEtFOSA)</t>
+  </si>
+  <si>
+    <t>9-H-Perfluorononanoic acid (9H-PFNA)</t>
+  </si>
+  <si>
+    <t>Perfluoro(2-ethoxyethane)sulfonic acid</t>
+  </si>
+  <si>
+    <t>Potassium perfluorooctanoate (KPFOA)</t>
+  </si>
+  <si>
+    <t>DTXSID00379925</t>
+  </si>
+  <si>
+    <t>DTXSID70379917</t>
+  </si>
+  <si>
+    <t>DTXSID90382620</t>
+  </si>
+  <si>
+    <t>DTXSID50226894</t>
+  </si>
+  <si>
+    <t>DTXSID50379814</t>
+  </si>
+  <si>
+    <t>DTXSID70565479</t>
+  </si>
+  <si>
+    <t>DTXSID40187142</t>
+  </si>
+  <si>
+    <t>DTXSID80380837</t>
+  </si>
+  <si>
+    <t>DTXSID80382154</t>
+  </si>
+  <si>
+    <t>Perfluorononanoyl chloride</t>
+  </si>
+  <si>
+    <t>6:3 Fluorotelomer carboxylic acid</t>
+  </si>
+  <si>
+    <t>8H-Perfluorooctanoic acid</t>
+  </si>
+  <si>
+    <t>Pentadecafluorooctanoyl chloride</t>
+  </si>
+  <si>
+    <t>Perfluoro-3,6,9-trioxadecanoic acid (PFPE-4)</t>
+  </si>
+  <si>
+    <t>Perfluoroheptanoyl chloride</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,9 +375,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -337,19 +419,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{1EE674AA-962C-4328-8568-01F827C01B4E}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -361,11 +487,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="8"/>
+        <sz val="11"/>
         <color auto="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -384,11 +510,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{61DDEC30-F9B7-48F5-A8B3-DBABB6D1E149}" name="Table1" displayName="Table1" ref="A1:B44" totalsRowShown="0">
-  <autoFilter ref="A1:B44" xr:uid="{61DDEC30-F9B7-48F5-A8B3-DBABB6D1E149}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{61DDEC30-F9B7-48F5-A8B3-DBABB6D1E149}" name="Table1" displayName="Table1" ref="A1:B55" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:B55" xr:uid="{61DDEC30-F9B7-48F5-A8B3-DBABB6D1E149}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CF27F945-8CE4-4AC2-B5C3-1FDA67ACBD79}" name="Chemical" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{7AA6CD87-74DC-4D34-B235-20B5844CCA97}" name="DTXSID"/>
+    <tableColumn id="1" xr3:uid="{CF27F945-8CE4-4AC2-B5C3-1FDA67ACBD79}" name="Chemical" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7AA6CD87-74DC-4D34-B235-20B5844CCA97}" name="DTXSID" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -691,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE8F23D-687E-440F-B10F-6183CD66E1B7}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -712,10 +838,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -723,7 +849,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -731,7 +857,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -739,7 +865,7 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -747,7 +873,7 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -755,7 +881,7 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -763,7 +889,7 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -771,7 +897,7 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -779,7 +905,7 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -787,7 +913,7 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -795,7 +921,7 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -803,7 +929,7 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -811,7 +937,7 @@
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -819,7 +945,7 @@
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -827,7 +953,7 @@
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -835,7 +961,7 @@
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -843,7 +969,7 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -851,7 +977,7 @@
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -859,7 +985,7 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -867,7 +993,7 @@
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -875,7 +1001,7 @@
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -883,7 +1009,7 @@
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -891,7 +1017,7 @@
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -899,7 +1025,7 @@
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -907,7 +1033,7 @@
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -915,7 +1041,7 @@
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -923,7 +1049,7 @@
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -931,7 +1057,7 @@
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -939,7 +1065,7 @@
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -947,7 +1073,7 @@
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -955,7 +1081,7 @@
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -963,7 +1089,7 @@
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -971,7 +1097,7 @@
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -979,7 +1105,7 @@
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -987,7 +1113,7 @@
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -995,7 +1121,7 @@
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1003,7 +1129,7 @@
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1011,7 +1137,7 @@
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1019,7 +1145,7 @@
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1027,7 +1153,7 @@
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1035,7 +1161,7 @@
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1043,7 +1169,7 @@
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1051,8 +1177,96 @@
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/working/CrizerPFAS/CrizerChemIDs.xlsx
+++ b/working/CrizerPFAS/CrizerChemIDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\invitrotkstats\working\CrizerPFAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA0E575-D911-46B5-BFF4-E4EE5D0E1805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C459F8E6-C802-4346-971A-C157A6A74240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{819F4BB0-2119-468F-947F-0171544AB1A3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{819F4BB0-2119-468F-947F-0171544AB1A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
   <si>
     <t>Chemical</t>
   </si>
@@ -305,16 +305,10 @@
     <t>3-Perfluoroheptylpropanoic acid (7:3 FTCA)</t>
   </si>
   <si>
-    <t>N-Ethylperfluorooctanesulfonamide (NEtFOSA)</t>
-  </si>
-  <si>
     <t>9-H-Perfluorononanoic acid (9H-PFNA)</t>
   </si>
   <si>
     <t>Perfluoro(2-ethoxyethane)sulfonic acid</t>
-  </si>
-  <si>
-    <t>Potassium perfluorooctanoate (KPFOA)</t>
   </si>
   <si>
     <t>DTXSID00379925</t>
@@ -464,21 +458,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -496,6 +475,21 @@
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -510,11 +504,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{61DDEC30-F9B7-48F5-A8B3-DBABB6D1E149}" name="Table1" displayName="Table1" ref="A1:B55" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{61DDEC30-F9B7-48F5-A8B3-DBABB6D1E149}" name="Table1" displayName="Table1" ref="A1:B55" totalsRowShown="0" dataDxfId="2">
   <autoFilter ref="A1:B55" xr:uid="{61DDEC30-F9B7-48F5-A8B3-DBABB6D1E149}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CF27F945-8CE4-4AC2-B5C3-1FDA67ACBD79}" name="Chemical" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7AA6CD87-74DC-4D34-B235-20B5844CCA97}" name="DTXSID" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CF27F945-8CE4-4AC2-B5C3-1FDA67ACBD79}" name="Chemical" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7AA6CD87-74DC-4D34-B235-20B5844CCA97}" name="DTXSID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -819,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE8F23D-687E-440F-B10F-6183CD66E1B7}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:A50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1183,50 +1177,50 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1234,12 +1228,12 @@
         <v>88</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>11</v>
@@ -1247,23 +1241,23 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>8</v>
